--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\Cursos UD\Computer-networking-ii\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E575A5E1-0D16-4FA6-B673-7D4696DBBDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3334406E-B52B-4947-9FE0-804278B588F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13188" yWindow="1800" windowWidth="12360" windowHeight="8880" xr2:uid="{4313324C-8992-4EDC-8CA8-729848622A99}"/>
+    <workbookView xWindow="8490" yWindow="2235" windowWidth="22890" windowHeight="11370" xr2:uid="{4313324C-8992-4EDC-8CA8-729848622A99}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="72">
   <si>
     <t>W1</t>
   </si>
@@ -229,6 +229,18 @@
   </si>
   <si>
     <t>Bogota</t>
+  </si>
+  <si>
+    <t>NEIVA</t>
+  </si>
+  <si>
+    <t>Medellin</t>
+  </si>
+  <si>
+    <t>Villa</t>
+  </si>
+  <si>
+    <t>MANI</t>
   </si>
 </sst>
 </file>
@@ -615,28 +627,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA9F3B8-7FF3-4528-851E-1F80AA59AD93}">
-  <dimension ref="B1:J76"/>
+  <dimension ref="B1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64:E74"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D152" sqref="D152:E155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
-    <col min="8" max="8" width="3.21875" customWidth="1"/>
-    <col min="9" max="9" width="15.77734375" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -657,7 +669,7 @@
       </c>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -686,7 +698,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -715,7 +727,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -744,7 +756,7 @@
         <v>255255255192</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>8</v>
       </c>
@@ -770,7 +782,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>9</v>
       </c>
@@ -796,7 +808,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>10</v>
       </c>
@@ -822,7 +834,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -848,7 +860,7 @@
         <v>255255255224</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
@@ -874,7 +886,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>13</v>
       </c>
@@ -900,7 +912,7 @@
         <v>255255255252</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>14</v>
       </c>
@@ -926,7 +938,7 @@
         <v>255255255252</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -952,7 +964,7 @@
         <v>255255255252</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>16</v>
       </c>
@@ -978,7 +990,7 @@
         <v>255255255252</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>17</v>
       </c>
@@ -1004,7 +1016,7 @@
         <v>255255255252</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -1030,7 +1042,7 @@
         <v>255255255252</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F17" s="1" t="s">
         <v>37</v>
       </c>
@@ -1047,7 +1059,7 @@
         <v>255255255252</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F18" s="1" t="s">
         <v>38</v>
       </c>
@@ -1064,7 +1076,7 @@
         <v>255255255252</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>24</v>
       </c>
@@ -1084,7 +1096,7 @@
         <v>255255255252</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>4</v>
       </c>
@@ -1113,7 +1125,7 @@
         <v>255255255252</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>0</v>
       </c>
@@ -1142,7 +1154,7 @@
         <v>255255255252</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>11</v>
       </c>
@@ -1156,7 +1168,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>12</v>
       </c>
@@ -1170,7 +1182,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>8</v>
       </c>
@@ -1181,7 +1193,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>9</v>
       </c>
@@ -1192,7 +1204,7 @@
         <v>255255255224</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>10</v>
       </c>
@@ -1203,7 +1215,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -1214,7 +1226,7 @@
         <v>255255255252</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>3</v>
       </c>
@@ -1225,7 +1237,7 @@
         <v>255255255252</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>13</v>
       </c>
@@ -1236,7 +1248,7 @@
         <v>255255255252</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>14</v>
       </c>
@@ -1247,7 +1259,7 @@
         <v>255255255252</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -1258,7 +1270,7 @@
         <v>255255255252</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>16</v>
       </c>
@@ -1269,7 +1281,7 @@
         <v>255255255252</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>17</v>
       </c>
@@ -1280,7 +1292,7 @@
         <v>255255255252</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>18</v>
       </c>
@@ -1291,7 +1303,7 @@
         <v>255255255252</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>67</v>
       </c>
@@ -1303,7 +1315,7 @@
       </c>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>7</v>
       </c>
@@ -1332,7 +1344,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>12</v>
       </c>
@@ -1361,7 +1373,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>14</v>
       </c>
@@ -1390,7 +1402,7 @@
         <v>255255255192</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>16</v>
       </c>
@@ -1419,7 +1431,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>8</v>
       </c>
@@ -1445,7 +1457,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>9</v>
       </c>
@@ -1471,7 +1483,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>10</v>
       </c>
@@ -1497,7 +1509,7 @@
         <v>255255255224</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>0</v>
       </c>
@@ -1523,7 +1535,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -1549,7 +1561,7 @@
         <v>255255255252</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>3</v>
       </c>
@@ -1575,7 +1587,7 @@
         <v>255255255252</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>11</v>
       </c>
@@ -1601,7 +1613,7 @@
         <v>255255255252</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>13</v>
       </c>
@@ -1627,7 +1639,7 @@
         <v>255255255252</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>15</v>
       </c>
@@ -1653,7 +1665,7 @@
         <v>255255255252</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>17</v>
       </c>
@@ -1679,7 +1691,7 @@
         <v>255255255252</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>18</v>
       </c>
@@ -1705,7 +1717,7 @@
         <v>255255255252</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F52" s="1" t="s">
         <v>38</v>
       </c>
@@ -1722,7 +1734,7 @@
         <v>255255255252</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F53" s="1" t="s">
         <v>39</v>
       </c>
@@ -1739,7 +1751,7 @@
         <v>255255255252</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F54" s="1" t="s">
         <v>40</v>
       </c>
@@ -1756,7 +1768,7 @@
         <v>255255255252</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F55" s="1" t="s">
         <v>41</v>
       </c>
@@ -1773,7 +1785,7 @@
         <v>255255255252</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>30</v>
       </c>
@@ -1785,7 +1797,7 @@
       </c>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>10</v>
       </c>
@@ -1814,7 +1826,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>16</v>
       </c>
@@ -1843,7 +1855,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>18</v>
       </c>
@@ -1872,7 +1884,7 @@
         <v>255255255192</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -1898,7 +1910,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>12</v>
       </c>
@@ -1924,7 +1936,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F63" s="1" t="s">
         <v>28</v>
       </c>
@@ -1941,7 +1953,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>5</v>
       </c>
@@ -1967,7 +1979,7 @@
         <v>255255255224</v>
       </c>
     </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>6</v>
       </c>
@@ -1993,7 +2005,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>8</v>
       </c>
@@ -2019,7 +2031,7 @@
         <v>255255255252</v>
       </c>
     </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>9</v>
       </c>
@@ -2045,7 +2057,7 @@
         <v>255255255252</v>
       </c>
     </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -2071,7 +2083,7 @@
         <v>255255255252</v>
       </c>
     </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -2097,7 +2109,7 @@
         <v>255255255252</v>
       </c>
     </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>11</v>
       </c>
@@ -2123,7 +2135,7 @@
         <v>255255255252</v>
       </c>
     </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>13</v>
       </c>
@@ -2149,7 +2161,7 @@
         <v>255255255252</v>
       </c>
     </row>
-    <row r="72" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>14</v>
       </c>
@@ -2175,7 +2187,7 @@
         <v>255255255252</v>
       </c>
     </row>
-    <row r="73" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>15</v>
       </c>
@@ -2201,7 +2213,7 @@
         <v>255255255252</v>
       </c>
     </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>17</v>
       </c>
@@ -2227,7 +2239,7 @@
         <v>255255255252</v>
       </c>
     </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F75" s="1" t="s">
         <v>40</v>
       </c>
@@ -2244,7 +2256,7 @@
         <v>255255255252</v>
       </c>
     </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F76" s="1" t="s">
         <v>41</v>
       </c>
@@ -2258,6 +2270,1940 @@
         <v>66</v>
       </c>
       <c r="J76" s="3">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>68</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H79" s="1">
+        <v>1</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E80" s="3">
+        <v>255255255192</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H80" s="1">
+        <v>2</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H81" s="1">
+        <v>3</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J81" s="3">
+        <v>255255255192</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H82" s="1">
+        <v>4</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H83" s="1">
+        <v>5</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H84" s="1">
+        <v>6</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E85" s="3">
+        <v>255255255252</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H85" s="1">
+        <v>7</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J85" s="3">
+        <v>255255255224</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E86" s="3">
+        <v>255255255252</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H86" s="1">
+        <v>8</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>3</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E87" s="3">
+        <v>255255255252</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H87" s="1">
+        <v>1</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J87" s="3">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E88" s="3">
+        <v>255255255252</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H88" s="1">
+        <v>2</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J88" s="3">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E89" s="3">
+        <v>255255255252</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H89" s="1">
+        <v>3</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J89" s="3">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E90" s="3">
+        <v>255255255252</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H90" s="1">
+        <v>4</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J90" s="3">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E91" s="3">
+        <v>255255255252</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H91" s="1">
+        <v>5</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J91" s="3">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E92" s="3">
+        <v>255255255252</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H92" s="1">
+        <v>6</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J92" s="3">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E93" s="3">
+        <v>255255255252</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H93" s="1">
+        <v>7</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J93" s="3">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F94" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H94" s="1">
+        <v>8</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J94" s="3">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F95" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H95" s="1">
+        <v>9</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J95" s="3">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F96" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H96" s="1">
+        <v>10</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J96" s="3">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F97" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H97" s="1">
+        <v>11</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J97" s="3">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>69</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H99" s="4"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H100" s="1">
+        <v>1</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H101" s="1">
+        <v>2</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E102" s="3">
+        <v>255255255192</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H102" s="1">
+        <v>3</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J102" s="3">
+        <v>255255255192</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H103" s="1">
+        <v>4</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H104" s="1">
+        <v>5</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E105" s="3">
+        <v>255255255224</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H105" s="1">
+        <v>6</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H106" s="1">
+        <v>7</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J106" s="3">
+        <v>255255255224</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
+        <v>0</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E107" s="3">
+        <v>255255255252</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H107" s="1">
+        <v>8</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E108" s="3">
+        <v>255255255252</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H108" s="1">
+        <v>1</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J108" s="3">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>3</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E109" s="3">
+        <v>255255255252</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H109" s="1">
+        <v>2</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J109" s="3">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E110" s="3">
+        <v>255255255252</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H110" s="1">
+        <v>3</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J110" s="3">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E111" s="3">
+        <v>255255255252</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H111" s="1">
+        <v>4</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J111" s="3">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E112" s="3">
+        <v>255255255252</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H112" s="1">
+        <v>5</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J112" s="3">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
+        <v>14</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E113" s="3">
+        <v>255255255252</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H113" s="1">
+        <v>6</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J113" s="3">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E114" s="3">
+        <v>255255255252</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H114" s="1">
+        <v>7</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J114" s="3">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>18</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E115" s="3">
+        <v>255255255252</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H115" s="1">
+        <v>8</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J115" s="3">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F116" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H116" s="1">
+        <v>9</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J116" s="3">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F117" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H117" s="1">
+        <v>10</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J117" s="3">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F118" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H118" s="1">
+        <v>11</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J118" s="3">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>70</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H120" s="4"/>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H121" s="1">
+        <v>1</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" t="s">
+        <v>4</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H122" s="1">
+        <v>2</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H123" s="1">
+        <v>3</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J123" s="3">
+        <v>255255255192</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>15</v>
+      </c>
+      <c r="C124" t="s">
+        <v>7</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H124" s="1">
+        <v>4</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H125" s="1">
+        <v>5</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C126" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E126" s="3">
+        <v>255255255224</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H126" s="1">
+        <v>6</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H127" s="1">
+        <v>7</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J127" s="3">
+        <v>255255255224</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C128" t="s">
+        <v>0</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E128" s="3">
+        <v>255255255252</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H128" s="1">
+        <v>8</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C129" t="s">
+        <v>3</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E129" s="3">
+        <v>255255255252</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H129" s="1">
+        <v>1</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J129" s="3">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C130" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E130" s="3">
+        <v>255255255252</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H130" s="1">
+        <v>2</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J130" s="3">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E131" s="3">
+        <v>255255255252</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H131" s="1">
+        <v>3</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J131" s="3">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C132" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E132" s="3">
+        <v>255255255252</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H132" s="1">
+        <v>4</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J132" s="3">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C133" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E133" s="3">
+        <v>255255255252</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H133" s="1">
+        <v>5</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J133" s="3">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C134" t="s">
+        <v>17</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E134" s="3">
+        <v>255255255252</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H134" s="1">
+        <v>6</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J134" s="3">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
+        <v>18</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E135" s="3">
+        <v>255255255252</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H135" s="1">
+        <v>7</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J135" s="3">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F136" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H136" s="1">
+        <v>8</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J136" s="3">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F137" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H137" s="1">
+        <v>9</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J137" s="3">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F138" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H138" s="1">
+        <v>10</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J138" s="3">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F139" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H139" s="1">
+        <v>11</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J139" s="3">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>71</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H141" s="4"/>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>6</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H142" s="1">
+        <v>1</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" t="s">
+        <v>4</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H143" s="1">
+        <v>2</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E144" s="3">
+        <v>255255255192</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H144" s="1">
+        <v>3</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J144" s="3">
+        <v>255255255192</v>
+      </c>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" t="s">
+        <v>7</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H145" s="1">
+        <v>4</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>14</v>
+      </c>
+      <c r="C146" t="s">
+        <v>8</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H146" s="1">
+        <v>5</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C147" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E147" s="3">
+        <v>255255255224</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H147" s="1">
+        <v>6</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C148" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H148" s="1">
+        <v>7</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J148" s="3">
+        <v>255255255224</v>
+      </c>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C149" t="s">
+        <v>0</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E149" s="3">
+        <v>255255255252</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H149" s="1">
+        <v>8</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C150" t="s">
+        <v>2</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E150" s="3">
+        <v>255255255252</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H150" s="1">
+        <v>1</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J150" s="3">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C151" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E151" s="3">
+        <v>255255255252</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H151" s="1">
+        <v>2</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J151" s="3">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C152" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E152" s="3">
+        <v>255255255252</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H152" s="1">
+        <v>3</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J152" s="3">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C153" t="s">
+        <v>16</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E153" s="3">
+        <v>255255255252</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H153" s="1">
+        <v>4</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J153" s="3">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C154" t="s">
+        <v>17</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E154" s="3">
+        <v>255255255252</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H154" s="1">
+        <v>5</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J154" s="3">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C155" t="s">
+        <v>18</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E155" s="3">
+        <v>255255255252</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H155" s="1">
+        <v>6</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J155" s="3">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F156" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H156" s="1">
+        <v>7</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J156" s="3">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F157" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H157" s="1">
+        <v>8</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J157" s="3">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F158" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H158" s="1">
+        <v>9</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J158" s="3">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F159" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H159" s="1">
+        <v>10</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J159" s="3">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F160" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H160" s="1">
+        <v>11</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J160" s="3">
         <v>255255255252</v>
       </c>
     </row>
